--- a/docs/EquipmentEntity.xlsx
+++ b/docs/EquipmentEntity.xlsx
@@ -465,7 +465,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -798,30 +798,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -862,7 +838,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -943,6 +919,30 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -982,38 +982,41 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1314,7 +1317,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1324,9 +1327,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N9" sqref="N9"/>
+      <selection pane="topRight" activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1348,11 +1351,11 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="38"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="46"/>
       <c r="E1" s="35" t="s">
         <v>2</v>
       </c>
@@ -1361,11 +1364,11 @@
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="41"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="49"/>
       <c r="E2" s="4"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -1379,9 +1382,9 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="53"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -1411,10 +1414,10 @@
       <c r="I4" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="49" t="s">
+      <c r="J4" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="K4" s="54" t="s">
+      <c r="K4" s="39" t="s">
         <v>100</v>
       </c>
     </row>
@@ -1449,7 +1452,7 @@
       <c r="J5" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="K5" s="55" t="str">
+      <c r="K5" s="40" t="str">
         <f>"Serialnumber OR Station code + channel"</f>
         <v>Serialnumber OR Station code + channel</v>
       </c>
@@ -1483,7 +1486,7 @@
         <v>24</v>
       </c>
       <c r="J6" s="2"/>
-      <c r="K6" s="55" t="s">
+      <c r="K6" s="40" t="s">
         <v>102</v>
       </c>
     </row>
@@ -1515,10 +1518,10 @@
       <c r="I7" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="50" t="s">
+      <c r="J7" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="K7" s="56" t="s">
+      <c r="K7" s="41" t="s">
         <v>121</v>
       </c>
     </row>
@@ -1551,7 +1554,7 @@
         <v>32</v>
       </c>
       <c r="J8" s="2"/>
-      <c r="K8" s="55" t="s">
+      <c r="K8" s="40" t="s">
         <v>103</v>
       </c>
     </row>
@@ -1584,7 +1587,7 @@
         <v>35</v>
       </c>
       <c r="J9" s="2"/>
-      <c r="K9" s="55" t="s">
+      <c r="K9" s="40" t="s">
         <v>104</v>
       </c>
     </row>
@@ -1619,7 +1622,7 @@
       <c r="J10" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="K10" s="55"/>
+      <c r="K10" s="40"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
@@ -1637,22 +1640,22 @@
       <c r="E11" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="42" t="s">
+      <c r="F11" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="G11" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="46" t="s">
+      <c r="G11" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="I11" s="48" t="s">
+      <c r="I11" s="56" t="s">
         <v>46</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="K11" s="55" t="s">
+      <c r="K11" s="40" t="s">
         <v>109</v>
       </c>
     </row>
@@ -1672,14 +1675,14 @@
       <c r="E12" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="43"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="48"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="56"/>
       <c r="J12" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="K12" s="55"/>
+      <c r="K12" s="40"/>
     </row>
     <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
@@ -1709,10 +1712,10 @@
       <c r="I13" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="J13" s="51" t="s">
+      <c r="J13" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="K13" s="57" t="s">
+      <c r="K13" s="42" t="s">
         <v>111</v>
       </c>
     </row>
@@ -1745,7 +1748,7 @@
         <v>53</v>
       </c>
       <c r="J14" s="2"/>
-      <c r="K14" s="55" t="s">
+      <c r="K14" s="40" t="s">
         <v>112</v>
       </c>
     </row>
@@ -1768,7 +1771,7 @@
         <v>56</v>
       </c>
       <c r="J15" s="2"/>
-      <c r="K15" s="55"/>
+      <c r="K15" s="40"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
@@ -1799,7 +1802,7 @@
         <v>60</v>
       </c>
       <c r="J16" s="2"/>
-      <c r="K16" s="55" t="s">
+      <c r="K16" s="40" t="s">
         <v>113</v>
       </c>
     </row>
@@ -1832,7 +1835,7 @@
         <v>63</v>
       </c>
       <c r="J17" s="2"/>
-      <c r="K17" s="55" t="s">
+      <c r="K17" s="40" t="s">
         <v>114</v>
       </c>
     </row>
@@ -1865,7 +1868,7 @@
         <v>66</v>
       </c>
       <c r="J18" s="2"/>
-      <c r="K18" s="55"/>
+      <c r="K18" s="40"/>
     </row>
     <row r="19" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
@@ -1886,7 +1889,7 @@
         <v>69</v>
       </c>
       <c r="J19" s="2"/>
-      <c r="K19" s="55"/>
+      <c r="K19" s="40"/>
     </row>
     <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
@@ -1919,7 +1922,7 @@
       <c r="J20" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="K20" s="55" t="s">
+      <c r="K20" s="40" t="s">
         <v>115</v>
       </c>
     </row>
@@ -1954,7 +1957,7 @@
       <c r="J21" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="K21" s="55" t="s">
+      <c r="K21" s="40" t="s">
         <v>116</v>
       </c>
     </row>
@@ -1987,7 +1990,7 @@
         <v>74</v>
       </c>
       <c r="J22" s="2"/>
-      <c r="K22" s="55"/>
+      <c r="K22" s="40"/>
     </row>
     <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="23" t="s">
@@ -2020,7 +2023,7 @@
       <c r="J23" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="K23" s="55"/>
+      <c r="K23" s="40"/>
     </row>
     <row r="24" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="s">
@@ -2049,7 +2052,7 @@
         <v>85</v>
       </c>
       <c r="J24" s="2"/>
-      <c r="K24" s="55"/>
+      <c r="K24" s="40"/>
     </row>
     <row r="25" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="23" t="s">
@@ -2080,7 +2083,7 @@
       <c r="J25" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="K25" s="55" t="s">
+      <c r="K25" s="40" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2111,7 +2114,7 @@
         <v>92</v>
       </c>
       <c r="J26" s="2"/>
-      <c r="K26" s="55" t="s">
+      <c r="K26" s="40" t="s">
         <v>98</v>
       </c>
     </row>
@@ -2144,18 +2147,18 @@
       <c r="J27" s="34" t="s">
         <v>118</v>
       </c>
-      <c r="K27" s="58" t="s">
+      <c r="K27" s="43" t="s">
         <v>119</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="I11:I12"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="F11:F12"/>
     <mergeCell ref="G11:G12"/>
     <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
